--- a/medicine/Enfance/Bernard_Friot_(écrivain)/Bernard_Friot_(écrivain).xlsx
+++ b/medicine/Enfance/Bernard_Friot_(écrivain)/Bernard_Friot_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bernard_Friot_(%C3%A9crivain)</t>
+          <t>Bernard_Friot_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Friot est un enseignant et écrivain français né en 1951 à Saint-Piat  (Eure-et-Loir)[1], auteur de livres pour la jeunesse pour les éditions Milan, Thierry Magnier, La Martinière ou encore pour Gallimard-Jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Friot est un enseignant et écrivain français né en 1951 à Saint-Piat  (Eure-et-Loir), auteur de livres pour la jeunesse pour les éditions Milan, Thierry Magnier, La Martinière ou encore pour Gallimard-Jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bernard_Friot_(%C3%A9crivain)</t>
+          <t>Bernard_Friot_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrégé de lettres, il a d'abord enseigné en collège, lycée et école normale, puis a été responsable et directeur  du Bureau du livre de jeunesse à Francfort pendant quatre ans[1].
-Après avoir travaillé dans plusieurs villes de France, il s'est installé à Bordeaux, où il se consacre à l'écriture et à la traduction française de livres pour la jeunesse. Il a écrit plus d'une cinquantaine d'ouvrages destinés aux adolescents ou aux enfants et en a traduit tout autant de l'allemand et de l'italien[2],[3].
-Avant d'écrire pour les enfants, il a écrit avec eux. Étudiant leur manière de raconter leurs histoires, de mélanger réalité et imaginaire, il a recueilli un grand nombre de récits qui ont, directement ou indirectement, inspiré ses textes. La liberté des enfants par rapport aux codes littéraires, leur créativité et, parfois, leur radicalité dans la peinture de leur univers l'étonnent toujours et l'incitent à inventer sans cesse de nouvelles  d'écriture[4].
-Travaillant avec des enfants en difficulté par rapport à la lecture, il a voulu leur « permettre d'être récompensés au bout d'une ou deux pages de l'effort que représente pour eux la lecture[5] ». Résultat : une multitude d’« Histoires pressées » et d'« Histoires minute », écrites pour « des lecteurs réticents en essayant de leur offrir le plus vite possible une émotion triste joyeuse, un sourire, une surprise[5] ».
-Se considérant comme un écrivain public[1], il cherche à capter « l'imaginaire des enfants d'aujourd'hui[5] » et à le transcrire dans ses textes. En les écoutant donner libre cours à leur plaisir de fabuler, il repère quels sont « les ressorts psychologiques qui font sens pour eux[5] », et bâtit son texte sans perdre de vue ces principes de base : la lisibilité, la densité, la fluidité.
-Il dit aussi « écrire à haute voix », se montre très sensible aux rythmes, aux sonorités, aux phrasés. Ce qui explique sans doute que ses textes (encore une fois principalement la série des Histoires pressées) sont aussi souvent mis en scène par de nombreux artistes[Note 1], troupes de théâtre professionnelles ou amateurs[6], voire adaptés pour des courts métrages. Plusieurs histoires ont même été mises en musique par Caroline Chauveau, Isabelle Chauvalon  et Laurent Jacquier, Jérôme Lefebvre. Il écrit désormais directement pour des musiciens : textes pour un spectacle musical (J'ai quelque chose à dire, création juin 2011 à Besançon sous la direction de Frédérique Cesselin, musiques de La Fanfare du loup), chansons, livrets d'opéra.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrégé de lettres, il a d'abord enseigné en collège, lycée et école normale, puis a été responsable et directeur  du Bureau du livre de jeunesse à Francfort pendant quatre ans.
+Après avoir travaillé dans plusieurs villes de France, il s'est installé à Bordeaux, où il se consacre à l'écriture et à la traduction française de livres pour la jeunesse. Il a écrit plus d'une cinquantaine d'ouvrages destinés aux adolescents ou aux enfants et en a traduit tout autant de l'allemand et de l'italien,.
+Avant d'écrire pour les enfants, il a écrit avec eux. Étudiant leur manière de raconter leurs histoires, de mélanger réalité et imaginaire, il a recueilli un grand nombre de récits qui ont, directement ou indirectement, inspiré ses textes. La liberté des enfants par rapport aux codes littéraires, leur créativité et, parfois, leur radicalité dans la peinture de leur univers l'étonnent toujours et l'incitent à inventer sans cesse de nouvelles  d'écriture.
+Travaillant avec des enfants en difficulté par rapport à la lecture, il a voulu leur « permettre d'être récompensés au bout d'une ou deux pages de l'effort que représente pour eux la lecture ». Résultat : une multitude d’« Histoires pressées » et d'« Histoires minute », écrites pour « des lecteurs réticents en essayant de leur offrir le plus vite possible une émotion triste joyeuse, un sourire, une surprise ».
+Se considérant comme un écrivain public, il cherche à capter « l'imaginaire des enfants d'aujourd'hui » et à le transcrire dans ses textes. En les écoutant donner libre cours à leur plaisir de fabuler, il repère quels sont « les ressorts psychologiques qui font sens pour eux », et bâtit son texte sans perdre de vue ces principes de base : la lisibilité, la densité, la fluidité.
+Il dit aussi « écrire à haute voix », se montre très sensible aux rythmes, aux sonorités, aux phrasés. Ce qui explique sans doute que ses textes (encore une fois principalement la série des Histoires pressées) sont aussi souvent mis en scène par de nombreux artistes[Note 1], troupes de théâtre professionnelles ou amateurs, voire adaptés pour des courts métrages. Plusieurs histoires ont même été mises en musique par Caroline Chauveau, Isabelle Chauvalon  et Laurent Jacquier, Jérôme Lefebvre. Il écrit désormais directement pour des musiciens : textes pour un spectacle musical (J'ai quelque chose à dire, création juin 2011 à Besançon sous la direction de Frédérique Cesselin, musiques de La Fanfare du loup), chansons, livrets d'opéra.
 Il est également l'auteur de plusieurs recueils de poésie. Il a écrit notamment deux recueils de « presque poèmes » pour adolescents, textes jouant avec les formes, les couleurs et la mise en page proposées par une illustratrice (Catherine Louis) et une graphiste (Élisabeth Ferté). Il a prolongé ce travail par deux recueils bousculant les codes graphiques, en collaboration avec Bruno Douin : Mon cœur a des dents et La vie sexuelle des libellules (pegi 18) (collection Macadam).
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[7].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bernard_Friot_(%C3%A9crivain)</t>
+          <t>Bernard_Friot_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,15 +565,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Jusqu'en 2000
-Histoires pressées, (illustrées par différents illustrateurs selon la réédition), Milan, collection Junior, 1988
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Jusqu'en 2000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoires pressées, (illustrées par différents illustrateurs selon la réédition), Milan, collection Junior, 1988
 La princesse Élastique, Milan, collection Cadet, 1989
 Nouvelles histoires pressées, Milan, collection Junior, 1991
 C'est Noël, ill. Catherine Louis, Hachette, 1994
-Encore des histoires pressées, Milan, collection Junior, 1997
-2001-2005
-Folle !,  éditions Thierry Magnier, coll. Romans,  2002
+Encore des histoires pressées, Milan, collection Junior, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2001-2005</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Folle !,  éditions Thierry Magnier, coll. Romans,  2002
 Pressé, pressée, Milan, coll. Poche Junior, 2002
 C’est quoi ton prénom ?, ill. Vincent Bergier, Milan, coll. Poche Cadet, 2003
 Histoires à la carte, Milan, 2003
@@ -573,9 +633,47 @@
 Nouvelles histoires minute, illustrations Nicolas Hubesch, Milan, coll. Poche Cadet plus, 2005
 Pour vivre. Presque poèmes, De La Martinière Jeunesse, 2005
 La lampe, illustrations Jean-François Martin, Milan, coll. Poche Cadet, 2005
-Presque poèmes : écriture poétique, cahier d’activités et Cdrom, illustrations Catherine Louis, éditions NK/La Martinière, 2005
-2006-2010
-Pressé ? Pas si pressé, Milan, coll. Poche Junior, 2006
+Presque poèmes : écriture poétique, cahier d’activités et Cdrom, illustrations Catherine Louis, éditions NK/La Martinière, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2006-2010</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pressé ? Pas si pressé, Milan, coll. Poche Junior, 2006
 Histoires à la carte. t5 : Un tableau trop bavard, ill. Éric Gasté, Milan, collection Cadet, 2006
 Peut-être oui (poèmes), La Martinière, 2006
 Jours de collège, Gallimard Jeunesse, coll. Scripto, 2006
@@ -600,9 +698,47 @@
 Mon cœur a des dents, poèmes sous haute tension, ill. de Bruno Douin, Milan, coll. Macadam, 2009
 Tomaso et les trois Ogresses, ill. de Eric Gasté, Milan, collection Cadet, 2009
 Un truc sur un machin, poèmes mécaniques, ill. de Christian Gibbaud, Milan, coll. Poche Cadet, 2009
-Léo et Léon, petits dialogues ébourrifés, illustrations Delphine Perret, Milan, 2010
-2011-2020
-La Vie sexuelle des libellules, et autres poèmes, création graphique, dessins et gribouillis de Bruno Douin, Milan, coll. Macadam, 2011
+Léo et Léon, petits dialogues ébourrifés, illustrations Delphine Perret, Milan, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2011-2020</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Vie sexuelle des libellules, et autres poèmes, création graphique, dessins et gribouillis de Bruno Douin, Milan, coll. Macadam, 2011
 Tous pressés, Milan, 2011
 Les Invités, avec Magali Le Huche, Éd. Glénat, 2011
 La Fabrique à histoires, ill. Violaine Leroy, Milan, 2011
@@ -633,13 +769,51 @@
 Paroles de baskets et autres objets bavards, Milan, 2017
 Un été de poésie, d'amour, de vie (rayez la mention inutile), Milan, 2018
 Super manuel pour (presque) tout savoir sur moi,  Flammarion, 2018
-Des trous dans le vent, poèmes en promenade[8], illustrations de Aurélie Guillerey, Milan, 2019
+Des trous dans le vent, poèmes en promenade, illustrations de Aurélie Guillerey, Milan, 2019
 De zéro à neuf, poèmes, Centre de création pour l'enfance de Tinqueux, 2019
 Il fiore del signor Moggi, illustraions Nicoletta Bertelle, Fatatrac, 2019
 Un cinema da Cani, illustrations Luca Tagliafico, Editions Clichy, 2019
-Histoires pressées, à toi de jouer, Milan, 2020
-après 2020
-Histoires chuchotées au musée Carnaval, illustrations Anthony Huchette, Paris Musées, 2021
+Histoires pressées, à toi de jouer, Milan, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>après 2020</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Histoires chuchotées au musée Carnaval, illustrations Anthony Huchette, Paris Musées, 2021
 Petit Biquet et le grand (pas) méchant loup, illustrations Thierry Manes, Flammarion jeunesse
 Ici ou là, et ailleurs aussi (poésie, version bilingue français-arabe), illustrations Jérémy Fischer, éditions Le port a jauni, 2021
 Balade en fromagie (documentaire, en collaboration avec Aurore Paillusson), illustrations de Thomas Baas et Charlotte Fréreau, Milan, 2023
@@ -657,62 +831,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bernard_Friot_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bernard Friot a traduit vers le français plusieurs dizaines d'ouvrages jeunesse[9], depuis l'italien, et depuis l'allemand.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bernard Friot a traduit vers le français plusieurs dizaines d'ouvrages jeunesse, depuis l'italien, et depuis l'allemand.
 Le collectionneur d'instants de Quint Buchholz, traduction depuis l'allemand, Milan, 1998</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bernard_Friot_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>CD audio
 Histoires pressées, SCEREN-CRDP Languedoc-Roussillon, 2004
@@ -723,41 +901,43 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bernard_Friot_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bernard_Friot_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bernard_Friot_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(international) « Honour List » 2000[10] de l' IBBY, Catégorie Traduction, pour Le collectionneur d'instants de Quint Buchholz, qu'il a traduit depuis l'allemand vers le français
-Prix TSR (Télévision suisse romande), littérature Ados 2008[11], pour son ouvrage Rien dire
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(international) « Honour List » 2000 de l' IBBY, Catégorie Traduction, pour Le collectionneur d'instants de Quint Buchholz, qu'il a traduit depuis l'allemand vers le français
+Prix TSR (Télévision suisse romande), littérature Ados 2008, pour son ouvrage Rien dire
 Premio Andersen 2009 pour Il mio mondo a testa in giu (traduction italienne des Histoires pressées)
 Premio ORBIL 2012 (Librerie indipendenti) pour Ricette per racconti a testa in giù (traduction italienne des Histoires minute)
-Prix des dévoreurs de livres[12] 2016 pour Le journal nul de mes amours nulles
-Prix Poésie des lecteurs Lire et faire lire[13] 2017 pour A la lettre : un alphabet poétique
+Prix des dévoreurs de livres 2016 pour Le journal nul de mes amours nulles
+Prix Poésie des lecteurs Lire et faire lire 2017 pour A la lettre : un alphabet poétique
 Premio Andersen 2019 comme "Protagonista della cultura per l'infanzia"
 Premio Liber Miglior libor del anno 2019 pour Un anno di poesia (traduction italienne de L'agenda du presque poète)
- Sélections de 2019 à 2023 (cinq années d'affilée) pour le Prix commémoratif Astrid-Lindgren[7]</t>
+ Sélections de 2019 à 2023 (cinq années d'affilée) pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
